--- a/templates/dataplant/Imaging_computation.xlsx
+++ b/templates/dataplant/Imaging_computation.xlsx
@@ -1,18 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0AD46E2-260F-4F51-B85F-1552590F4C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="isa_template" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="4COm05_Imaging" state="visible" r:id="rId5"/>
+    <sheet name="isa_template" sheetId="1" r:id="rId1"/>
+    <sheet name="4COm05_Imaging" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="75">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -237,34 +241,19 @@
   </si>
   <si>
     <t>R</t>
-  </si>
-  <si>
-    <t>analytical</t>
-  </si>
-  <si>
-    <t>adaption of contrast</t>
-  </si>
-  <si>
-    <t>softWoRx</t>
-  </si>
-  <si>
-    <t>extraction of features via segmentation masks of the cytoplasm</t>
-  </si>
-  <si>
-    <t>MATLAB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -291,7 +280,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -307,8 +296,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:Z3" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="A1:Z3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="annotationTable" displayName="annotationTable" ref="A1:Z2">
+  <autoFilter ref="A1:Z2" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -337,32 +326,32 @@
     <filterColumn colId="25" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="26">
-    <tableColumn id="1" name="Input [Source Name]" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Parameter [use of image]" totalsRowFunction="none"/>
-    <tableColumn id="3" name="Term Source REF (DPBO:1000135)" totalsRowFunction="none"/>
-    <tableColumn id="4" name="Term Accession Number (DPBO:1000135)" totalsRowFunction="none"/>
-    <tableColumn id="5" name="Parameter [image processing technique]" totalsRowFunction="none"/>
-    <tableColumn id="6" name="Term Source REF (ERO:0001788)" totalsRowFunction="none"/>
-    <tableColumn id="7" name="Term Accession Number (ERO:0001788)" totalsRowFunction="none"/>
-    <tableColumn id="8" name="Parameter [image processing software]" totalsRowFunction="none"/>
-    <tableColumn id="9" name="Term Source REF (DPBO:1000128)" totalsRowFunction="none"/>
-    <tableColumn id="10" name="Term Accession Number (DPBO:1000128)" totalsRowFunction="none"/>
-    <tableColumn id="11" name="Parameter [image processing software parameters]" totalsRowFunction="none"/>
-    <tableColumn id="12" name="Term Source REF (DPBO:1000130)" totalsRowFunction="none"/>
-    <tableColumn id="13" name="Term Accession Number (DPBO:1000130)" totalsRowFunction="none"/>
-    <tableColumn id="14" name="Parameter [feature extraction strategy]" totalsRowFunction="none"/>
-    <tableColumn id="15" name="Term Source REF (DPBO:1000133)" totalsRowFunction="none"/>
-    <tableColumn id="16" name="Term Accession Number (DPBO:1000133)" totalsRowFunction="none"/>
-    <tableColumn id="17" name="Parameter [feature extraction software]" totalsRowFunction="none"/>
-    <tableColumn id="18" name="Term Source REF (DPBO:1000131)" totalsRowFunction="none"/>
-    <tableColumn id="19" name="Term Accession Number (DPBO:1000131)" totalsRowFunction="none"/>
-    <tableColumn id="20" name="Parameter [data analysis]" totalsRowFunction="none"/>
-    <tableColumn id="21" name="Term Source REF (SIO:001051)" totalsRowFunction="none"/>
-    <tableColumn id="22" name="Term Accession Number (SIO:001051)" totalsRowFunction="none"/>
-    <tableColumn id="23" name="Parameter [image data analysis software]" totalsRowFunction="none"/>
-    <tableColumn id="24" name="Term Source REF (DPBO:1000129)" totalsRowFunction="none"/>
-    <tableColumn id="25" name="Term Accession Number (DPBO:1000129)" totalsRowFunction="none"/>
-    <tableColumn id="26" name="Output [Derived Data File]" totalsRowFunction="none"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Input [Source Name]" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Parameter [use of image]"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Term Source REF (DPBO:1000135)"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Term Accession Number (DPBO:1000135)"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Parameter [image processing technique]"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Term Source REF (ERO:0001788)"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Term Accession Number (ERO:0001788)"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Parameter [image processing software]"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Term Source REF (DPBO:1000128)"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Term Accession Number (DPBO:1000128)"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Parameter [image processing software parameters]"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Term Source REF (DPBO:1000130)"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Term Accession Number (DPBO:1000130)"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Parameter [feature extraction strategy]"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Term Source REF (DPBO:1000133)"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Term Accession Number (DPBO:1000133)"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Parameter [feature extraction software]"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Term Source REF (DPBO:1000131)"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Term Accession Number (DPBO:1000131)"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Parameter [data analysis]"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Term Source REF (SIO:001051)"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Term Accession Number (SIO:001051)"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Parameter [image data analysis software]"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Term Source REF (DPBO:1000129)"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Term Accession Number (DPBO:1000129)"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Output [Derived Data File]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -664,16 +653,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C27"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -681,7 +673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -689,7 +681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -697,7 +689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -705,7 +697,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -713,7 +705,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -721,32 +713,32 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -757,7 +749,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -768,7 +760,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -776,12 +768,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -789,7 +781,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -797,63 +789,68 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z3"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Z2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -933,7 +930,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -1013,89 +1010,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I3" t="s">
-        <v>66</v>
-      </c>
-      <c r="J3" t="s">
-        <v>66</v>
-      </c>
-      <c r="K3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L3" t="s">
-        <v>66</v>
-      </c>
-      <c r="M3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N3" t="s">
-        <v>78</v>
-      </c>
-      <c r="O3" t="s">
-        <v>66</v>
-      </c>
-      <c r="P3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>66</v>
-      </c>
-      <c r="R3" t="s">
-        <v>66</v>
-      </c>
-      <c r="S3" t="s">
-        <v>66</v>
-      </c>
-      <c r="T3" t="s">
-        <v>66</v>
-      </c>
-      <c r="U3" t="s">
-        <v>66</v>
-      </c>
-      <c r="V3" t="s">
-        <v>66</v>
-      </c>
-      <c r="W3" t="s">
-        <v>79</v>
-      </c>
-      <c r="X3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>66</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/templates/dataplant/Imaging_computation.xlsx
+++ b/templates/dataplant/Imaging_computation.xlsx
@@ -1,15 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0AD46E2-260F-4F51-B85F-1552590F4C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="isa_template" sheetId="1" r:id="rId1"/>
-    <sheet name="4COm05_Imaging" sheetId="2" r:id="rId2"/>
+    <sheet sheetId="1" name="isa_template" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="4COm05_Imaging" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -36,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.3</t>
+    <t>1.0.4</t>
   </si>
   <si>
     <t>Description</t>
@@ -141,7 +137,7 @@
     <t>Input [Source Name]</t>
   </si>
   <si>
-    <t>Parameter [use of image]</t>
+    <t>Characteristic [use of image]</t>
   </si>
   <si>
     <t>Term Source REF (DPBO:1000135)</t>
@@ -159,7 +155,7 @@
     <t>Term Accession Number (ERO:0001788)</t>
   </si>
   <si>
-    <t>Parameter [image processing software]</t>
+    <t>Component [image processing software]</t>
   </si>
   <si>
     <t>Term Source REF (DPBO:1000128)</t>
@@ -186,7 +182,7 @@
     <t>Term Accession Number (DPBO:1000133)</t>
   </si>
   <si>
-    <t>Parameter [feature extraction software]</t>
+    <t>Component [feature extraction software]</t>
   </si>
   <si>
     <t>Term Source REF (DPBO:1000131)</t>
@@ -204,7 +200,7 @@
     <t>Term Accession Number (SIO:001051)</t>
   </si>
   <si>
-    <t>Parameter [image data analysis software]</t>
+    <t>Component [image data analysis software]</t>
   </si>
   <si>
     <t>Term Source REF (DPBO:1000129)</t>
@@ -213,7 +209,7 @@
     <t>Term Accession Number (DPBO:1000129)</t>
   </si>
   <si>
-    <t>Output [Derived Data File]</t>
+    <t>Output [Data]</t>
   </si>
   <si>
     <t/>
@@ -234,7 +230,7 @@
     <t>manually</t>
   </si>
   <si>
-    <t xml:space="preserve">R package EBImage </t>
+    <t>R package EBImage</t>
   </si>
   <si>
     <t xml:space="preserve">robust L1 regression to estimate the effects of the cell line and compound treatment using the medpolish function </t>
@@ -246,14 +242,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -280,7 +276,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -296,8 +292,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="annotationTable" displayName="annotationTable" ref="A1:Z2">
-  <autoFilter ref="A1:Z2" xr:uid="{00000000-0009-0000-0100-000001000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:Z2" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="A1:Z2">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -326,32 +322,32 @@
     <filterColumn colId="25" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="26">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Input [Source Name]" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Parameter [use of image]"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Term Source REF (DPBO:1000135)"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Term Accession Number (DPBO:1000135)"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Parameter [image processing technique]"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Term Source REF (ERO:0001788)"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Term Accession Number (ERO:0001788)"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Parameter [image processing software]"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Term Source REF (DPBO:1000128)"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Term Accession Number (DPBO:1000128)"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Parameter [image processing software parameters]"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Term Source REF (DPBO:1000130)"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Term Accession Number (DPBO:1000130)"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Parameter [feature extraction strategy]"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Term Source REF (DPBO:1000133)"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Term Accession Number (DPBO:1000133)"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Parameter [feature extraction software]"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Term Source REF (DPBO:1000131)"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Term Accession Number (DPBO:1000131)"/>
-    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Parameter [data analysis]"/>
-    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Term Source REF (SIO:001051)"/>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Term Accession Number (SIO:001051)"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Parameter [image data analysis software]"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Term Source REF (DPBO:1000129)"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="Term Accession Number (DPBO:1000129)"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Output [Derived Data File]"/>
+    <tableColumn id="1" name="Input [Source Name]" totalsRowLabel="Total"/>
+    <tableColumn id="2" name="Characteristic [use of image]" totalsRowFunction="none"/>
+    <tableColumn id="3" name="Term Source REF (DPBO:1000135)" totalsRowFunction="none"/>
+    <tableColumn id="4" name="Term Accession Number (DPBO:1000135)" totalsRowFunction="none"/>
+    <tableColumn id="5" name="Parameter [image processing technique]" totalsRowFunction="none"/>
+    <tableColumn id="6" name="Term Source REF (ERO:0001788)" totalsRowFunction="none"/>
+    <tableColumn id="7" name="Term Accession Number (ERO:0001788)" totalsRowFunction="none"/>
+    <tableColumn id="8" name="Component [image processing software]" totalsRowFunction="none"/>
+    <tableColumn id="9" name="Term Source REF (DPBO:1000128)" totalsRowFunction="none"/>
+    <tableColumn id="10" name="Term Accession Number (DPBO:1000128)" totalsRowFunction="none"/>
+    <tableColumn id="11" name="Parameter [image processing software parameters]" totalsRowFunction="none"/>
+    <tableColumn id="12" name="Term Source REF (DPBO:1000130)" totalsRowFunction="none"/>
+    <tableColumn id="13" name="Term Accession Number (DPBO:1000130)" totalsRowFunction="none"/>
+    <tableColumn id="14" name="Parameter [feature extraction strategy]" totalsRowFunction="none"/>
+    <tableColumn id="15" name="Term Source REF (DPBO:1000133)" totalsRowFunction="none"/>
+    <tableColumn id="16" name="Term Accession Number (DPBO:1000133)" totalsRowFunction="none"/>
+    <tableColumn id="17" name="Component [feature extraction software]" totalsRowFunction="none"/>
+    <tableColumn id="18" name="Term Source REF (DPBO:1000131)" totalsRowFunction="none"/>
+    <tableColumn id="19" name="Term Accession Number (DPBO:1000131)" totalsRowFunction="none"/>
+    <tableColumn id="20" name="Parameter [data analysis]" totalsRowFunction="none"/>
+    <tableColumn id="21" name="Term Source REF (SIO:001051)" totalsRowFunction="none"/>
+    <tableColumn id="22" name="Term Accession Number (SIO:001051)" totalsRowFunction="none"/>
+    <tableColumn id="23" name="Component [image data analysis software]" totalsRowFunction="none"/>
+    <tableColumn id="24" name="Term Source REF (DPBO:1000129)" totalsRowFunction="none"/>
+    <tableColumn id="25" name="Term Accession Number (DPBO:1000129)" totalsRowFunction="none"/>
+    <tableColumn id="26" name="Output [Data]" totalsRowFunction="none"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -653,19 +649,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -673,7 +666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -681,7 +674,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -689,7 +682,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -697,7 +690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -705,7 +698,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -713,32 +706,32 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -749,7 +742,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -760,7 +753,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -768,12 +761,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -781,7 +774,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -789,68 +782,63 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -930,7 +918,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -1012,7 +1000,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/templates/dataplant/Imaging_computation.xlsx
+++ b/templates/dataplant/Imaging_computation.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
     <sheet sheetId="1" name="isa_template" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="4COm05_Imaging" state="visible" r:id="rId5"/>
+    <sheet sheetId="2" name="Imageanalysis" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="72">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -32,13 +32,13 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.4</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>Template that describes the computational working steps for imaging-related research.</t>
+    <t>Template that describes the computational working steps for imaging-related research. Template is based on REMBI (recommended metadata for biological images).</t>
   </si>
   <si>
     <t>Organisation</t>
@@ -50,7 +50,7 @@
     <t>Table</t>
   </si>
   <si>
-    <t>4COm05_Imaging</t>
+    <t>Imageanalysis</t>
   </si>
   <si>
     <t>ERS</t>
@@ -71,27 +71,36 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>extraction</t>
-  </si>
-  <si>
     <t>imaging</t>
   </si>
   <si>
+    <t>Computation</t>
+  </si>
+  <si>
+    <t>Analysis</t>
+  </si>
+  <si>
     <t>Tags Term Accession Number</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0302884</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/AFP_0003774</t>
   </si>
   <si>
+    <t>https://bioregistry.io/NCIT:C61298</t>
+  </si>
+  <si>
+    <t>https://bioregistry.io/NCIT:C25391</t>
+  </si>
+  <si>
     <t>Tags Term Source REF</t>
   </si>
   <si>
     <t>AFO</t>
   </si>
   <si>
+    <t>NCIT</t>
+  </si>
+  <si>
     <t>AUTHORS</t>
   </si>
   <si>
@@ -101,12 +110,30 @@
     <t>Rempfer</t>
   </si>
   <si>
+    <t>Krooß</t>
+  </si>
+  <si>
+    <t>Zander</t>
+  </si>
+  <si>
+    <t>Eggels</t>
+  </si>
+  <si>
     <t>Author First Name</t>
   </si>
   <si>
     <t>Christine</t>
   </si>
   <si>
+    <t>Ksenia</t>
+  </si>
+  <si>
+    <t>Sabrina</t>
+  </si>
+  <si>
+    <t>Stella</t>
+  </si>
+  <si>
     <t>Author Mid Initials</t>
   </si>
   <si>
@@ -125,6 +152,12 @@
     <t>Author Affiliation</t>
   </si>
   <si>
+    <t>Heinrich Heine Universität Düsseldorf</t>
+  </si>
+  <si>
+    <t>Forschungszentrum Jülich</t>
+  </si>
+  <si>
     <t>Author Roles</t>
   </si>
   <si>
@@ -134,16 +167,7 @@
     <t>Author Roles Term Source REF</t>
   </si>
   <si>
-    <t>Input [Source Name]</t>
-  </si>
-  <si>
-    <t>Characteristic [use of image]</t>
-  </si>
-  <si>
-    <t>Term Source REF (DPBO:1000135)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (DPBO:1000135)</t>
+    <t>Input [Data]</t>
   </si>
   <si>
     <t>Parameter [image processing technique]</t>
@@ -164,33 +188,6 @@
     <t>Term Accession Number (DPBO:1000128)</t>
   </si>
   <si>
-    <t>Parameter [image processing software parameters]</t>
-  </si>
-  <si>
-    <t>Term Source REF (DPBO:1000130)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (DPBO:1000130)</t>
-  </si>
-  <si>
-    <t>Parameter [feature extraction strategy]</t>
-  </si>
-  <si>
-    <t>Term Source REF (DPBO:1000133)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (DPBO:1000133)</t>
-  </si>
-  <si>
-    <t>Component [feature extraction software]</t>
-  </si>
-  <si>
-    <t>Term Source REF (DPBO:1000131)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (DPBO:1000131)</t>
-  </si>
-  <si>
     <t>Parameter [data analysis]</t>
   </si>
   <si>
@@ -212,25 +209,19 @@
     <t>Output [Data]</t>
   </si>
   <si>
+    <t>Data Format</t>
+  </si>
+  <si>
+    <t>Data Selector Format</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>illustrational</t>
-  </si>
-  <si>
     <t>stacking</t>
   </si>
   <si>
     <t>ImageJ</t>
-  </si>
-  <si>
-    <t>pixel size 39.5 nm; channel-specific optical transfer functions; Wiener filter 0.002</t>
-  </si>
-  <si>
-    <t>manually</t>
-  </si>
-  <si>
-    <t>R package EBImage</t>
   </si>
   <si>
     <t xml:space="preserve">robust L1 regression to estimate the effects of the cell line and compound treatment using the medpolish function </t>
@@ -292,8 +283,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:Z2" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="A1:Z2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:P2" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="A1:P2">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -310,44 +301,24 @@
     <filterColumn colId="13" hiddenButton="1"/>
     <filterColumn colId="14" hiddenButton="1"/>
     <filterColumn colId="15" hiddenButton="1"/>
-    <filterColumn colId="16" hiddenButton="1"/>
-    <filterColumn colId="17" hiddenButton="1"/>
-    <filterColumn colId="18" hiddenButton="1"/>
-    <filterColumn colId="19" hiddenButton="1"/>
-    <filterColumn colId="20" hiddenButton="1"/>
-    <filterColumn colId="21" hiddenButton="1"/>
-    <filterColumn colId="22" hiddenButton="1"/>
-    <filterColumn colId="23" hiddenButton="1"/>
-    <filterColumn colId="24" hiddenButton="1"/>
-    <filterColumn colId="25" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="26">
-    <tableColumn id="1" name="Input [Source Name]" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Characteristic [use of image]" totalsRowFunction="none"/>
-    <tableColumn id="3" name="Term Source REF (DPBO:1000135)" totalsRowFunction="none"/>
-    <tableColumn id="4" name="Term Accession Number (DPBO:1000135)" totalsRowFunction="none"/>
-    <tableColumn id="5" name="Parameter [image processing technique]" totalsRowFunction="none"/>
-    <tableColumn id="6" name="Term Source REF (ERO:0001788)" totalsRowFunction="none"/>
-    <tableColumn id="7" name="Term Accession Number (ERO:0001788)" totalsRowFunction="none"/>
-    <tableColumn id="8" name="Component [image processing software]" totalsRowFunction="none"/>
-    <tableColumn id="9" name="Term Source REF (DPBO:1000128)" totalsRowFunction="none"/>
-    <tableColumn id="10" name="Term Accession Number (DPBO:1000128)" totalsRowFunction="none"/>
-    <tableColumn id="11" name="Parameter [image processing software parameters]" totalsRowFunction="none"/>
-    <tableColumn id="12" name="Term Source REF (DPBO:1000130)" totalsRowFunction="none"/>
-    <tableColumn id="13" name="Term Accession Number (DPBO:1000130)" totalsRowFunction="none"/>
-    <tableColumn id="14" name="Parameter [feature extraction strategy]" totalsRowFunction="none"/>
-    <tableColumn id="15" name="Term Source REF (DPBO:1000133)" totalsRowFunction="none"/>
-    <tableColumn id="16" name="Term Accession Number (DPBO:1000133)" totalsRowFunction="none"/>
-    <tableColumn id="17" name="Component [feature extraction software]" totalsRowFunction="none"/>
-    <tableColumn id="18" name="Term Source REF (DPBO:1000131)" totalsRowFunction="none"/>
-    <tableColumn id="19" name="Term Accession Number (DPBO:1000131)" totalsRowFunction="none"/>
-    <tableColumn id="20" name="Parameter [data analysis]" totalsRowFunction="none"/>
-    <tableColumn id="21" name="Term Source REF (SIO:001051)" totalsRowFunction="none"/>
-    <tableColumn id="22" name="Term Accession Number (SIO:001051)" totalsRowFunction="none"/>
-    <tableColumn id="23" name="Component [image data analysis software]" totalsRowFunction="none"/>
-    <tableColumn id="24" name="Term Source REF (DPBO:1000129)" totalsRowFunction="none"/>
-    <tableColumn id="25" name="Term Accession Number (DPBO:1000129)" totalsRowFunction="none"/>
-    <tableColumn id="26" name="Output [Data]" totalsRowFunction="none"/>
+  <tableColumns count="16">
+    <tableColumn id="1" name="Input [Data]" totalsRowLabel="Total"/>
+    <tableColumn id="2" name="Parameter [image processing technique]" totalsRowFunction="none"/>
+    <tableColumn id="3" name="Term Source REF (ERO:0001788)" totalsRowFunction="none"/>
+    <tableColumn id="4" name="Term Accession Number (ERO:0001788)" totalsRowFunction="none"/>
+    <tableColumn id="5" name="Component [image processing software]" totalsRowFunction="none"/>
+    <tableColumn id="6" name="Term Source REF (DPBO:1000128)" totalsRowFunction="none"/>
+    <tableColumn id="7" name="Term Accession Number (DPBO:1000128)" totalsRowFunction="none"/>
+    <tableColumn id="8" name="Parameter [data analysis]" totalsRowFunction="none"/>
+    <tableColumn id="9" name="Term Source REF (SIO:001051)" totalsRowFunction="none"/>
+    <tableColumn id="10" name="Term Accession Number (SIO:001051)" totalsRowFunction="none"/>
+    <tableColumn id="11" name="Component [image data analysis software]" totalsRowFunction="none"/>
+    <tableColumn id="12" name="Term Source REF (DPBO:1000129)" totalsRowFunction="none"/>
+    <tableColumn id="13" name="Term Accession Number (DPBO:1000129)" totalsRowFunction="none"/>
+    <tableColumn id="14" name="Output [Data]" totalsRowFunction="none"/>
+    <tableColumn id="15" name="Data Format" totalsRowFunction="none"/>
+    <tableColumn id="16" name="Data Selector Format" totalsRowFunction="none"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -650,7 +621,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:E27"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -731,7 +702,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -741,90 +712,129 @@
       <c r="C13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -835,167 +845,107 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:P2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="G1" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="H1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="I1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="J1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="K1" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="L1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="M1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="N1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="O1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="P1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>56</v>
-      </c>
-      <c r="R1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S1" t="s">
-        <v>58</v>
-      </c>
-      <c r="T1" t="s">
-        <v>59</v>
-      </c>
-      <c r="U1" t="s">
-        <v>60</v>
-      </c>
-      <c r="V1" t="s">
-        <v>61</v>
-      </c>
-      <c r="W1" t="s">
-        <v>62</v>
-      </c>
-      <c r="X1" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="O2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>72</v>
-      </c>
-      <c r="R2" t="s">
-        <v>66</v>
-      </c>
-      <c r="S2" t="s">
-        <v>66</v>
-      </c>
-      <c r="T2" t="s">
-        <v>73</v>
-      </c>
-      <c r="U2" t="s">
-        <v>66</v>
-      </c>
-      <c r="V2" t="s">
-        <v>66</v>
-      </c>
-      <c r="W2" t="s">
-        <v>74</v>
-      </c>
-      <c r="X2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/templates/dataplant/Imaging_computation.xlsx
+++ b/templates/dataplant/Imaging_computation.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="76">
   <si>
     <t>TEMPLATE</t>
   </si>
@@ -170,6 +170,12 @@
     <t>Input [Data]</t>
   </si>
   <si>
+    <t>Data Format</t>
+  </si>
+  <si>
+    <t>Data Selector Format</t>
+  </si>
+  <si>
     <t>Parameter [image processing technique]</t>
   </si>
   <si>
@@ -209,25 +215,31 @@
     <t>Output [Data]</t>
   </si>
   <si>
-    <t>Data Format</t>
-  </si>
-  <si>
-    <t>Data Selector Format</t>
+    <t xml:space="preserve">Data Format </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Selector Format </t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>stacking</t>
+    <t>export as tiff</t>
+  </si>
+  <si>
+    <t>Zeiss ZEN 3.5 (blue edition)</t>
+  </si>
+  <si>
+    <t>DPBO</t>
+  </si>
+  <si>
+    <t>http://purl.org/nfdi4plants/ontology/dpbo/DPBO_1000195</t>
+  </si>
+  <si>
+    <t>Segmentation and watershed to separate and count nuclei</t>
   </si>
   <si>
     <t>ImageJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">robust L1 regression to estimate the effects of the cell line and compound treatment using the medpolish function </t>
-  </si>
-  <si>
-    <t>R</t>
   </si>
 </sst>
 </file>
@@ -283,8 +295,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:P2" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="A1:P2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:R2" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="A1:R2">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -301,24 +313,28 @@
     <filterColumn colId="13" hiddenButton="1"/>
     <filterColumn colId="14" hiddenButton="1"/>
     <filterColumn colId="15" hiddenButton="1"/>
+    <filterColumn colId="16" hiddenButton="1"/>
+    <filterColumn colId="17" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="16">
+  <tableColumns count="18">
     <tableColumn id="1" name="Input [Data]" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Parameter [image processing technique]" totalsRowFunction="none"/>
-    <tableColumn id="3" name="Term Source REF (ERO:0001788)" totalsRowFunction="none"/>
-    <tableColumn id="4" name="Term Accession Number (ERO:0001788)" totalsRowFunction="none"/>
-    <tableColumn id="5" name="Component [image processing software]" totalsRowFunction="none"/>
-    <tableColumn id="6" name="Term Source REF (DPBO:1000128)" totalsRowFunction="none"/>
-    <tableColumn id="7" name="Term Accession Number (DPBO:1000128)" totalsRowFunction="none"/>
-    <tableColumn id="8" name="Parameter [data analysis]" totalsRowFunction="none"/>
-    <tableColumn id="9" name="Term Source REF (SIO:001051)" totalsRowFunction="none"/>
-    <tableColumn id="10" name="Term Accession Number (SIO:001051)" totalsRowFunction="none"/>
-    <tableColumn id="11" name="Component [image data analysis software]" totalsRowFunction="none"/>
-    <tableColumn id="12" name="Term Source REF (DPBO:1000129)" totalsRowFunction="none"/>
-    <tableColumn id="13" name="Term Accession Number (DPBO:1000129)" totalsRowFunction="none"/>
-    <tableColumn id="14" name="Output [Data]" totalsRowFunction="none"/>
-    <tableColumn id="15" name="Data Format" totalsRowFunction="none"/>
-    <tableColumn id="16" name="Data Selector Format" totalsRowFunction="none"/>
+    <tableColumn id="2" name="Data Format" totalsRowFunction="none"/>
+    <tableColumn id="3" name="Data Selector Format" totalsRowFunction="none"/>
+    <tableColumn id="4" name="Parameter [image processing technique]" totalsRowFunction="none"/>
+    <tableColumn id="5" name="Term Source REF (ERO:0001788)" totalsRowFunction="none"/>
+    <tableColumn id="6" name="Term Accession Number (ERO:0001788)" totalsRowFunction="none"/>
+    <tableColumn id="7" name="Component [image processing software]" totalsRowFunction="none"/>
+    <tableColumn id="8" name="Term Source REF (DPBO:1000128)" totalsRowFunction="none"/>
+    <tableColumn id="9" name="Term Accession Number (DPBO:1000128)" totalsRowFunction="none"/>
+    <tableColumn id="10" name="Parameter [data analysis]" totalsRowFunction="none"/>
+    <tableColumn id="11" name="Term Source REF (SIO:001051)" totalsRowFunction="none"/>
+    <tableColumn id="12" name="Term Accession Number (SIO:001051)" totalsRowFunction="none"/>
+    <tableColumn id="13" name="Component [image data analysis software]" totalsRowFunction="none"/>
+    <tableColumn id="14" name="Term Source REF (DPBO:1000129)" totalsRowFunction="none"/>
+    <tableColumn id="15" name="Term Accession Number (DPBO:1000129)" totalsRowFunction="none"/>
+    <tableColumn id="16" name="Output [Data]" totalsRowFunction="none"/>
+    <tableColumn id="17" name="Data Format " totalsRowFunction="none"/>
+    <tableColumn id="18" name="Data Selector Format " totalsRowFunction="none"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -845,10 +861,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:R2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -897,55 +913,67 @@
       <c r="P1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
         <v>69</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="J2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="K2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="N2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P2" t="s">
-        <v>67</v>
+        <v>69</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>69</v>
+      </c>
+      <c r="R2" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
